--- a/dataset/Sensor5.xlsx
+++ b/dataset/Sensor5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\code\_python\sensor_fault_dataset\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301E9DDC-9F09-49E7-83DC-C5CF1EE4F975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262C41E9-2B4E-41C8-8B97-6E38F1431BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,6 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,10 +156,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
